--- a/Projektdokumentation/Soll_Analyse/Projektplanung/Projektstrukturplan_Wesseler.xlsx
+++ b/Projektdokumentation/Soll_Analyse/Projektplanung/Projektstrukturplan_Wesseler.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Epik Soll-Analyse" sheetId="8" r:id="rId5"/>
     <sheet name="Epik Systemarchitektur" sheetId="10" r:id="rId6"/>
     <sheet name="Sprint 2 Overview" sheetId="11" r:id="rId7"/>
-    <sheet name="Sprint 3 Overview" sheetId="4" r:id="rId8"/>
+    <sheet name="Sprint 3 Overview" sheetId="12" r:id="rId8"/>
     <sheet name="Sprint 4 Overview" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
   <si>
     <t xml:space="preserve">SP001 </t>
   </si>
@@ -111,13 +111,6 @@
     <t>US008</t>
   </si>
   <si>
-    <t>Der Kunde möchte eine
-vollständige Ist- und Soll-Analyse (Ergebnisse US004 - US007)</t>
-  </si>
-  <si>
-    <t>US009</t>
-  </si>
-  <si>
     <t>Explanation</t>
   </si>
   <si>
@@ -268,9 +261,6 @@
     <t>Der Projektteilnehmer will nach Projektauswahl ein Dashboard mit Elementen aus anderen Boards</t>
   </si>
   <si>
-    <t>SPRINT 3!!!!!</t>
-  </si>
-  <si>
     <t>Accountverwaltung</t>
   </si>
   <si>
@@ -329,12 +319,6 @@
   </si>
   <si>
     <t>US051</t>
-  </si>
-  <si>
-    <t>SPRINT3!!!!!</t>
-  </si>
-  <si>
-    <t>SPRINT3!!!!</t>
   </si>
   <si>
     <t>Ereignisliste</t>
@@ -546,6 +530,9 @@
   </si>
   <si>
     <t>US011</t>
+  </si>
+  <si>
+    <t>US048</t>
   </si>
 </sst>
 </file>
@@ -623,7 +610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -659,12 +646,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -706,6 +717,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1277,29 +1297,29 @@
   <sheetData>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -1319,7 +1339,7 @@
   <dimension ref="A3:J14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1358,28 +1378,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1395,6 +1415,8 @@
   <hyperlinks>
     <hyperlink ref="B6" location="'Sprint 1 Overview'!A1" display="Dokumentation &amp; Prototyp"/>
     <hyperlink ref="D6" location="'Sprint 2 Overview'!A1" display="Kern Implementation"/>
+    <hyperlink ref="H6" location="'Sprint 3 Overview'!A1" display="Finalisierung der Website"/>
+    <hyperlink ref="J6" location="'Sprint 4 Overview'!A1" display="Präsentation &amp; Prototyp"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1404,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1430,7 +1452,7 @@
     <col min="17" max="17" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1440,17 +1462,8 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1462,39 +1475,21 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1504,72 +1499,46 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="Q5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1579,60 +1548,45 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1642,12 +1596,8 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1657,84 +1607,8 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-    </row>
+    </row>
+    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" location="'Sprint 1 Overview'!A1" display="Dokumentation &amp; Prototyp"/>
@@ -1749,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1766,37 +1640,83 @@
     <col min="7" max="7" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="E5" s="10"/>
       <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1808,10 +1728,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1822,25 +1742,49 @@
     <col min="4" max="4" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1848,6 +1792,14 @@
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1859,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1873,25 +1825,51 @@
     <col min="4" max="4" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1899,6 +1877,14 @@
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1910,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL52"/>
+  <dimension ref="A1:AL33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="L3" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1976,13 +1962,6 @@
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
       <c r="AG1" s="10"/>
       <c r="AH1" s="10"/>
       <c r="AI1" s="10"/>
@@ -1995,7 +1974,7 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2018,13 +1997,6 @@
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
       <c r="AI2" s="10"/>
@@ -2037,7 +2009,7 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -2060,19 +2032,10 @@
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
       <c r="AG3" s="10"/>
       <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
       <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
@@ -2092,171 +2055,116 @@
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="R4" s="10"/>
       <c r="S4" s="10"/>
-      <c r="T4" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S5" s="10"/>
       <c r="T5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="10"/>
-      <c r="Z5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
     </row>
     <row r="6" spans="1:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="14" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="14" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="14" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="14" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="S6" s="10"/>
-      <c r="T6" s="14" t="s">
-        <v>93</v>
+      <c r="T6" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="U6" s="10"/>
       <c r="V6" s="14" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="W6" s="10"/>
       <c r="X6" s="14" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="Y6" s="10"/>
-      <c r="Z6" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
@@ -2268,182 +2176,123 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="R7" s="10"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="5" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="5" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="5" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="U8" s="10"/>
       <c r="V8" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="5" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="Y8" s="10"/>
-      <c r="Z8" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
     </row>
     <row r="9" spans="1:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="K9" s="10"/>
-      <c r="L9" s="4" t="s">
-        <v>82</v>
+      <c r="L9" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="M9" s="10"/>
-      <c r="N9" s="13" t="s">
-        <v>73</v>
+      <c r="N9" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="O9" s="10"/>
-      <c r="P9" s="4" t="s">
-        <v>79</v>
+      <c r="P9" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="Q9" s="10"/>
       <c r="R9" s="13" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="13" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="U9" s="10"/>
       <c r="V9" s="13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="13" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
@@ -2457,173 +2306,106 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
-      <c r="V10" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="V10" s="10"/>
       <c r="W10" s="10"/>
-      <c r="X10" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="5" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
+      <c r="R11" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="S11" s="10"/>
       <c r="T11" s="5" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="U11" s="10"/>
       <c r="V11" s="5" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="W11" s="10"/>
       <c r="X11" s="5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
     </row>
     <row r="12" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="4" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+      <c r="R12" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="S12" s="10"/>
       <c r="T12" s="4" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="U12" s="10"/>
       <c r="V12" s="4" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="4" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y12" s="10"/>
-      <c r="Z12" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
@@ -2645,147 +2427,90 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
-      <c r="T13" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="T13" s="10"/>
       <c r="U13" s="10"/>
-      <c r="V13" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="V13" s="10"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
-      <c r="Z13" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="P14" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="5" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="U14" s="10"/>
       <c r="V14" s="5" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="W14" s="10"/>
       <c r="X14" s="5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="Y14" s="10"/>
-      <c r="Z14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
     </row>
     <row r="15" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="P15" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="4" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="U15" s="10"/>
       <c r="V15" s="4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="W15" s="10"/>
       <c r="X15" s="4" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="Y15" s="10"/>
-      <c r="Z15" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
@@ -2807,40 +2532,23 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
-      <c r="T16" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
-      <c r="X16" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -2851,52 +2559,33 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="P17" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
-      <c r="T17" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="5" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="W17" s="10"/>
       <c r="X17" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="Y17" s="10"/>
-      <c r="Z17" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
-    </row>
-    <row r="18" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:25" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -2907,43 +2596,24 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
+      <c r="P18" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
-      <c r="T18" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="4" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="W18" s="10"/>
       <c r="X18" s="4" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="Y18" s="10"/>
-      <c r="Z18" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="10"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2963,33 +2633,14 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
-      <c r="T19" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="T19" s="10"/>
       <c r="U19" s="10"/>
-      <c r="V19" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="V19" s="10"/>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="10"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -3005,37 +2656,20 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="P20" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
-      <c r="T20" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="T20" s="10"/>
       <c r="U20" s="10"/>
-      <c r="V20" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="V20" s="10"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="10"/>
-    </row>
-    <row r="21" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:25" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -3051,37 +2685,20 @@
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
+      <c r="P21" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
-      <c r="T21" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="T21" s="10"/>
       <c r="U21" s="10"/>
-      <c r="V21" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -3107,628 +2724,701 @@
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="5" t="s">
+    </row>
+    <row r="24" spans="1:25" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:25" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:25" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" location="Overview!A1" display="Dokumentation &amp; Prototyp"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL52"/>
+  <sheetViews>
+    <sheetView topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="8" max="8" width="28.5" customWidth="1"/>
+    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="11" max="11" width="3.5" customWidth="1"/>
+    <col min="12" max="12" width="28.5" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
+    <col min="14" max="14" width="28.5" customWidth="1"/>
+    <col min="15" max="15" width="3.5" customWidth="1"/>
+    <col min="16" max="16" width="28.5" customWidth="1"/>
+    <col min="17" max="17" width="2.33203125" customWidth="1"/>
+    <col min="18" max="18" width="28.5" customWidth="1"/>
+    <col min="19" max="19" width="2.6640625" customWidth="1"/>
+    <col min="20" max="20" width="28.6640625" customWidth="1"/>
+    <col min="21" max="21" width="2.33203125" customWidth="1"/>
+    <col min="22" max="22" width="28.5" customWidth="1"/>
+    <col min="23" max="23" width="2.33203125" customWidth="1"/>
+    <col min="24" max="24" width="28.5" customWidth="1"/>
+    <col min="25" max="25" width="2.5" customWidth="1"/>
+    <col min="26" max="26" width="28.5" customWidth="1"/>
+    <col min="27" max="27" width="2.5" customWidth="1"/>
+    <col min="28" max="28" width="28.5" customWidth="1"/>
+    <col min="29" max="29" width="2.83203125" customWidth="1"/>
+    <col min="30" max="30" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+    </row>
+    <row r="3" spans="1:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="10"/>
+      <c r="T5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="10"/>
+      <c r="V5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="S6" s="10"/>
+      <c r="T6" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="U6" s="10"/>
+      <c r="V6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
-    </row>
-    <row r="24" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="10"/>
-      <c r="AL25" s="10"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-    </row>
-    <row r="27" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="4" t="s">
+      <c r="Q8" s="10"/>
+      <c r="R8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S8" s="10"/>
+      <c r="T8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="U8" s="10"/>
+      <c r="V8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="W8" s="10"/>
+    </row>
+    <row r="9" spans="1:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S9" s="10"/>
+      <c r="T9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="U9" s="10"/>
+      <c r="V9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="10"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-    </row>
-    <row r="30" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="10"/>
-      <c r="AI30" s="10"/>
-      <c r="AJ30" s="10"/>
-      <c r="AK30" s="10"/>
-      <c r="AL30" s="10"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="10"/>
-      <c r="AI31" s="10"/>
-      <c r="AJ31" s="10"/>
-      <c r="AK31" s="10"/>
-      <c r="AL31" s="10"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="10"/>
-      <c r="AI32" s="10"/>
-      <c r="AJ32" s="10"/>
-      <c r="AK32" s="10"/>
-    </row>
-    <row r="33" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10"/>
-      <c r="AK33" s="10"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="10"/>
-      <c r="AG35" s="10"/>
-      <c r="AH35" s="10"/>
-      <c r="AI35" s="10"/>
-      <c r="AJ35" s="10"/>
-      <c r="AK35" s="10"/>
-      <c r="AL35" s="10"/>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="10"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="10"/>
-      <c r="AJ36" s="10"/>
-      <c r="AK36" s="10"/>
-      <c r="AL36" s="10"/>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+    </row>
+    <row r="21" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:38" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -3736,13 +3426,12 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -3750,13 +3439,12 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -3764,13 +3452,12 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -3783,7 +3470,7 @@
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -3796,7 +3483,7 @@
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -3809,7 +3496,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -3822,7 +3509,7 @@
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -3835,7 +3522,7 @@
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -3848,7 +3535,7 @@
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -3880,7 +3567,6 @@
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -3891,9 +3577,7 @@
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
       <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -3904,9 +3588,7 @@
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
       <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -3914,25 +3596,14 @@
       <c r="L52" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H9:H11"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" location="Overview!A1" display="Dokumentation &amp; Prototyp"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
